--- a/pcb/bom/bom.xlsx
+++ b/pcb/bom/bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
   <si>
     <t>Qty</t>
   </si>
@@ -37,13 +37,13 @@
     <t>2</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
   <si>
     <t>13</t>
@@ -52,22 +52,31 @@
     <t>BT1</t>
   </si>
   <si>
-    <t>C3, C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2, D3, D4, D5, D6, D7, D8</t>
-  </si>
-  <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>L1</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2, C3</t>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D5, D6, D7, D8, D9, D10, D11, D12</t>
+  </si>
+  <si>
+    <t>D13</t>
+  </si>
+  <si>
+    <t>D14</t>
+  </si>
+  <si>
+    <t>H1, H2, H3, H4</t>
+  </si>
+  <si>
+    <t>J1, J3</t>
+  </si>
+  <si>
+    <t>J2, J4</t>
+  </si>
+  <si>
+    <t>J5</t>
   </si>
   <si>
     <t>Q1</t>
@@ -76,49 +85,40 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14, R15, R18, R19, R20, R21</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>S1, S2, S4, S5, S6, S7, S8, S9, S10, S11, S12, S14, S15</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S13</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>R2, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>S1, S2, S3, S5, S6, S7, S8, S9, S10, S11, S12, S13, S14</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S15</t>
   </si>
   <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>U2, U3</t>
-  </si>
-  <si>
-    <t>U5, U8</t>
-  </si>
-  <si>
-    <t>U6, U7</t>
-  </si>
-  <si>
-    <t>U10</t>
+    <t>U1, U2</t>
+  </si>
+  <si>
+    <t>U3, U7</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5, U6</t>
   </si>
   <si>
     <t>Battery Holder</t>
@@ -133,9 +133,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>Progamming Socket</t>
-  </si>
-  <si>
     <t>P-Channel MOSFET</t>
   </si>
   <si>
@@ -166,19 +163,28 @@
     <t>2466</t>
   </si>
   <si>
+    <t>10nF</t>
+  </si>
+  <si>
     <t>0.1µF</t>
   </si>
   <si>
-    <t>10nF</t>
+    <t>APA102-2020</t>
   </si>
   <si>
     <t>BAT54C</t>
   </si>
   <si>
-    <t>SHF-105-01-L-D-SM</t>
-  </si>
-  <si>
-    <t>10µH</t>
+    <t>Threaded_Standoff</t>
+  </si>
+  <si>
+    <t>Conn_01x09_Female</t>
+  </si>
+  <si>
+    <t>Conn_01x09_Male</t>
+  </si>
+  <si>
+    <t>Conn_02x03_Odd_Even</t>
   </si>
   <si>
     <t>FDN340P</t>
@@ -187,24 +193,18 @@
     <t>BSS123</t>
   </si>
   <si>
+    <t>100KΩ</t>
+  </si>
+  <si>
     <t>10KΩ</t>
   </si>
   <si>
-    <t>100KΩ</t>
-  </si>
-  <si>
     <t>330Ω</t>
   </si>
   <si>
     <t>1MΩ</t>
   </si>
   <si>
-    <t>470Ω</t>
-  </si>
-  <si>
-    <t>330KΩ</t>
-  </si>
-  <si>
     <t>Gateron Blue</t>
   </si>
   <si>
@@ -214,31 +214,31 @@
     <t>SW_SPST</t>
   </si>
   <si>
-    <t>MAX1724</t>
-  </si>
-  <si>
     <t>LTC-4727JS</t>
   </si>
   <si>
     <t>AS1115-BSST</t>
   </si>
   <si>
+    <t>ATSAMD21E</t>
+  </si>
+  <si>
     <t>LTC-4727JR</t>
   </si>
   <si>
-    <t>ATSAMD21E15A-A</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/keystone-electronics/2466/36-2466-ND/303815</t>
   </si>
   <si>
     <t>~</t>
   </si>
   <si>
+    <t>http://www.led-color.com/upload/201604/APA102-2020%20SMD%20LED.pdf</t>
+  </si>
+  <si>
     <t>http://www.diodes.com/_files/datasheets/ds11005.pdf</t>
   </si>
   <si>
-    <t>https://www.digikey.com/products/en?keywords=SAM10710-ND</t>
+    <t>https://www.adafruit.com/product/4207</t>
   </si>
   <si>
     <t>https://www.digikey.com/products/en?keywords=FDN340PCT-ND</t>
@@ -262,10 +262,10 @@
     <t>https://www.digikey.com/products/en?keywords=AS1115-BSSTCT-ND</t>
   </si>
   <si>
+    <t>https://www.digikey.com/en/products/detail/microchip-technology/ATSAMD21E18A-AU/4935886</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/products/en?keywords=160-1551-5-nd</t>
-  </si>
-  <si>
-    <t>http://ww1.microchip.com/downloads/en/DeviceDoc/SAM_D21_DA1_Family_Data%20Sheet_DS40001882E.pdf</t>
   </si>
 </sst>
 </file>
@@ -670,15 +670,15 @@
         <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -687,15 +687,15 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -704,44 +704,41 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -752,78 +749,69 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>40</v>
-      </c>
       <c r="D9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
       <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -834,13 +822,13 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -851,13 +839,13 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -868,13 +856,13 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -885,13 +873,13 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -902,41 +890,41 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>63</v>
@@ -953,13 +941,13 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -970,13 +958,13 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -986,8 +974,14 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>65</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -998,10 +992,10 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>80</v>
@@ -1015,10 +1009,10 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>81</v>
@@ -1026,16 +1020,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
       <c r="D24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>82</v>
@@ -1043,13 +1034,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>34</v>
       </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>83</v>
@@ -1059,17 +1053,18 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E7" r:id="rId3"/>
-    <hyperlink ref="E9" r:id="rId4"/>
-    <hyperlink ref="E10" r:id="rId5"/>
-    <hyperlink ref="E17" r:id="rId6"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E8" r:id="rId4"/>
+    <hyperlink ref="E12" r:id="rId5"/>
+    <hyperlink ref="E13" r:id="rId6"/>
     <hyperlink ref="E18" r:id="rId7"/>
     <hyperlink ref="E19" r:id="rId8"/>
     <hyperlink ref="E20" r:id="rId9"/>
-    <hyperlink ref="E22" r:id="rId10"/>
-    <hyperlink ref="E23" r:id="rId11"/>
-    <hyperlink ref="E24" r:id="rId12"/>
-    <hyperlink ref="E25" r:id="rId13"/>
+    <hyperlink ref="E21" r:id="rId10"/>
+    <hyperlink ref="E22" r:id="rId11"/>
+    <hyperlink ref="E23" r:id="rId12"/>
+    <hyperlink ref="E24" r:id="rId13"/>
+    <hyperlink ref="E25" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pcb/bom/bom.xlsx
+++ b/pcb/bom/bom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>Qty</t>
   </si>
@@ -43,10 +43,10 @@
     <t>4</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>10</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>BT1</t>
@@ -64,9 +64,6 @@
     <t>D13</t>
   </si>
   <si>
-    <t>D14</t>
-  </si>
-  <si>
     <t>H1, H2, H3, H4</t>
   </si>
   <si>
@@ -88,19 +85,16 @@
     <t>R1</t>
   </si>
   <si>
-    <t>R2, R5, R6, R7, R8, R9, R10, R11, R12, R13, R14</t>
-  </si>
-  <si>
     <t>R3</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>S1, S2, S3, S5, S6, S7, S8, S9, S10, S11, S12, S13, S14</t>
-  </si>
-  <si>
-    <t>S4</t>
+    <t>R5, R6, R7, R8, R9, R10, R11, R12, R13, R14</t>
+  </si>
+  <si>
+    <t>S1, S2, S3, S4, S5, S6, S7, S8, S9, S10, S11, S12, S13, S14, S16</t>
   </si>
   <si>
     <t>S15</t>
@@ -121,6 +115,9 @@
     <t>U5, U6</t>
   </si>
   <si>
+    <t>U8</t>
+  </si>
+  <si>
     <t>Battery Holder</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>Schottky Diode</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
     <t>P-Channel MOSFET</t>
   </si>
   <si>
@@ -160,7 +154,7 @@
     <t>Red 4-Digit Display</t>
   </si>
   <si>
-    <t>2466</t>
+    <t>2468</t>
   </si>
   <si>
     <t>10nF</t>
@@ -196,15 +190,15 @@
     <t>100KΩ</t>
   </si>
   <si>
+    <t>330Ω</t>
+  </si>
+  <si>
+    <t>1MΩ</t>
+  </si>
+  <si>
     <t>10KΩ</t>
   </si>
   <si>
-    <t>330Ω</t>
-  </si>
-  <si>
-    <t>1MΩ</t>
-  </si>
-  <si>
     <t>Gateron Blue</t>
   </si>
   <si>
@@ -226,6 +220,9 @@
     <t>LTC-4727JR</t>
   </si>
   <si>
+    <t>AT24C01C-STUM</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/keystone-electronics/2466/36-2466-ND/303815</t>
   </si>
   <si>
@@ -253,7 +250,7 @@
     <t>https://www.digikey.com/products/en?keywords=sw1440ct</t>
   </si>
   <si>
-    <t>https://www.digikey.com/products/en?keywords=360-1012-ND</t>
+    <t>https://www.digikey.com/en/products/detail/nkk-switches/M2012EA2W13/4509655</t>
   </si>
   <si>
     <t>https://www.digikey.com/products/en?keywords=LTC-4727JS</t>
@@ -636,7 +633,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,13 +664,13 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -684,13 +681,13 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -701,13 +698,13 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -718,10 +715,10 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -732,44 +729,41 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
       <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -780,24 +774,24 @@
         <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -807,11 +801,14 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
       <c r="D11" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
+        <v>55</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -822,10 +819,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>75</v>
@@ -839,13 +836,13 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>57</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -856,78 +853,78 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>77</v>
@@ -947,12 +944,12 @@
         <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
         <v>29</v>
@@ -964,12 +961,12 @@
         <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -981,24 +978,21 @@
         <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
       <c r="D22" t="s">
         <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1009,13 +1003,13 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
         <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1027,26 +1021,6 @@
       </c>
       <c r="D24" t="s">
         <v>68</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1054,17 +1028,16 @@
     <hyperlink ref="E2" r:id="rId1"/>
     <hyperlink ref="E5" r:id="rId2"/>
     <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E8" r:id="rId4"/>
-    <hyperlink ref="E12" r:id="rId5"/>
-    <hyperlink ref="E13" r:id="rId6"/>
-    <hyperlink ref="E18" r:id="rId7"/>
-    <hyperlink ref="E19" r:id="rId8"/>
-    <hyperlink ref="E20" r:id="rId9"/>
-    <hyperlink ref="E21" r:id="rId10"/>
-    <hyperlink ref="E22" r:id="rId11"/>
-    <hyperlink ref="E23" r:id="rId12"/>
-    <hyperlink ref="E24" r:id="rId13"/>
-    <hyperlink ref="E25" r:id="rId14"/>
+    <hyperlink ref="E7" r:id="rId4"/>
+    <hyperlink ref="E11" r:id="rId5"/>
+    <hyperlink ref="E12" r:id="rId6"/>
+    <hyperlink ref="E17" r:id="rId7"/>
+    <hyperlink ref="E18" r:id="rId8"/>
+    <hyperlink ref="E19" r:id="rId9"/>
+    <hyperlink ref="E20" r:id="rId10"/>
+    <hyperlink ref="E21" r:id="rId11"/>
+    <hyperlink ref="E22" r:id="rId12"/>
+    <hyperlink ref="E23" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
